--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MANAGEBOOKING-ALL-THE-WAY" sheetId="3" r:id="rId1"/>
-    <sheet name="BOOKING-ALL-THE-WAY" sheetId="4" r:id="rId2"/>
-    <sheet name="BOOKING-CANCEL" sheetId="5" r:id="rId3"/>
-    <sheet name="MANAGEBOOKING-CANCEL" sheetId="7" r:id="rId4"/>
+    <sheet name="MANAGEBOOKING-ALL-THE-WAY (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="BOOKING-ALL-THE-WAY" sheetId="4" r:id="rId3"/>
+    <sheet name="BOOKING-CANCEL" sheetId="5" r:id="rId4"/>
+    <sheet name="MANAGEBOOKING-CANCEL" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
   <si>
     <t>CHANGE SHOWTIME</t>
   </si>
@@ -35,9 +36,6 @@
   </si>
   <si>
     <t>* changing ticket class requires new seat selection</t>
-  </si>
-  <si>
-    <t>SEAT PAGE REQUIRED/GO</t>
   </si>
   <si>
     <t>SEAT CHOSEN BY USER</t>
@@ -100,10 +98,52 @@
     <t>opt-go_seat_selection; seat selection and confirmation/review page</t>
   </si>
   <si>
-    <t>payment fail page</t>
+    <t>RESET BOOKING DETAILS TO FORMER?</t>
   </si>
   <si>
-    <t>RESET BOOKING DETAILS TO FORMER?</t>
+    <t>ok '26jun</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>FREED SEATS</t>
+  </si>
+  <si>
+    <t>SEAT PAGE GO</t>
+  </si>
+  <si>
+    <t>seat page opt</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>multi-3</t>
+  </si>
+  <si>
+    <t>CHANGE ST</t>
+  </si>
+  <si>
+    <t>SAME TC</t>
+  </si>
+  <si>
+    <t>SOME SEATS NOT AVAILABLE</t>
+  </si>
+  <si>
+    <t>U LIKE TO CHANGE?</t>
+  </si>
+  <si>
+    <t>CS (0-NONE;1-SOME;2-ALL)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>choose st</t>
+  </si>
+  <si>
+    <t>payment fail page???</t>
   </si>
 </sst>
 </file>
@@ -160,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,20 +210,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +541,9 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -516,7 +559,6 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -531,13 +573,14 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2" t="s">
@@ -560,7 +603,6 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>0</v>
       </c>
@@ -585,7 +627,6 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
@@ -610,7 +651,6 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>1</v>
       </c>
@@ -635,7 +675,6 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -660,7 +699,6 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>0</v>
       </c>
@@ -685,7 +723,6 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -710,7 +747,6 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -727,7 +763,6 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -748,7 +783,6 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2">
         <v>0</v>
       </c>
@@ -775,7 +809,6 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2">
         <v>1</v>
       </c>
@@ -802,7 +835,6 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>1</v>
       </c>
@@ -827,7 +859,6 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2">
         <v>0</v>
       </c>
@@ -850,7 +881,6 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>0</v>
       </c>
@@ -872,7 +902,6 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
       <c r="H17" s="2">
         <v>1</v>
       </c>
@@ -893,7 +922,6 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="H18" s="2">
         <v>1</v>
       </c>
@@ -908,12 +936,14 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -921,11 +951,10 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -934,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,16 +974,15 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6">
+      <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="5">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
     </row>
@@ -966,14 +994,13 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -987,7 +1014,6 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" s="2">
         <v>0</v>
       </c>
@@ -1008,7 +1034,6 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="2">
         <v>0</v>
       </c>
@@ -1029,7 +1054,6 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2">
         <v>1</v>
       </c>
@@ -1050,7 +1074,6 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2"/>
       <c r="H26" s="2">
         <v>1</v>
       </c>
@@ -1065,7 +1088,6 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1085,7 +1107,6 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>0</v>
       </c>
@@ -1112,7 +1133,6 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>1</v>
       </c>
@@ -1139,7 +1159,6 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>1</v>
       </c>
@@ -1163,7 +1182,6 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
       <c r="H31" s="2">
         <v>0</v>
       </c>
@@ -1184,7 +1202,6 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2"/>
       <c r="H32" s="2">
         <v>0</v>
       </c>
@@ -1205,7 +1222,6 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2"/>
       <c r="H33" s="2">
         <v>1</v>
       </c>
@@ -1226,7 +1242,6 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="2"/>
       <c r="H34" s="2">
         <v>1</v>
       </c>
@@ -1241,7 +1256,6 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1252,7 +1266,6 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1263,7 +1276,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1274,7 +1286,6 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1285,7 +1296,6 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1296,7 +1306,6 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1307,7 +1316,6 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1318,7 +1326,6 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1329,7 +1336,6 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1340,7 +1346,6 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1351,7 +1356,6 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1362,7 +1366,6 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1373,7 +1376,6 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1384,1586 +1386,1388 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-    </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2976,10 +2780,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F245"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,27 +2935,34 @@
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -3021,8 +2974,14 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -3032,10 +2991,16 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -3045,10 +3010,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -3060,8 +3031,14 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -3071,10 +3048,16 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -3084,10 +3067,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -3099,8 +3088,14 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -3110,10 +3105,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -3123,54 +3124,78 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -3196,16 +3221,16 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -4141,20 +4166,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4162,139 +4188,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>19</v>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4302,12 +4402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C31"/>
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,151 +4418,231 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
